--- a/downloaded_files/CMPS405_Tutorial-35569.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35569.xlsx
@@ -1346,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6641871528</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1538,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6657920949</x:v>
+        <x:v>45927.6138481134</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>

--- a/downloaded_files/CMPS405_Tutorial-35569.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35569.xlsx
@@ -273,7 +273,7 @@
     <x:t>محمد هاني فوزي محمد الخطيب</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+    <x:t>Mohammed Hany Fawzy Mohammed Alkhateeb</x:t>
   </x:si>
   <x:si>
     <x:t>1220205</x:t>

--- a/downloaded_files/CMPS405_Tutorial-35569.xlsx
+++ b/downloaded_files/CMPS405_Tutorial-35569.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد سامح صلاح مصيلحى</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
+    <x:t>Ahmed Sameh Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1220116</x:t>
@@ -147,7 +147,7 @@
     <x:t>عبد الرحمن على السيد محمد السيد الحديدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
+    <x:t>Abdul Rahman Ali Elsayed Muhammad Elsayed Alhadidi</x:t>
   </x:si>
   <x:si>
     <x:t>4220123</x:t>
@@ -255,7 +255,7 @@
     <x:t>محمد اشرف محمد كرم الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Ashraf Mohamed</x:t>
+    <x:t>Mohamed Ashraf Mohamed Karam Allah</x:t>
   </x:si>
   <x:si>
     <x:t>1220195</x:t>
@@ -291,7 +291,7 @@
     <x:t>مهند محمد فتحى محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
+    <x:t xml:space="preserve"> Mohaned Mohammed fathy Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1220293</x:t>
@@ -318,7 +318,7 @@
     <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssuf kamel ismail Mohammed</x:t>
+    <x:t>Youssef Kamel Ismail Mohamed Kamel Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1220300</x:t>
